--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +559,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +606,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -911,10 +935,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -958,28 +982,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1004,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1195,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1242,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1288,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1460,10 +1484,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1507,28 +1531,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1553,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1981,10 +2005,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2028,28 +2052,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2074,28 +2098,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2328,10 +2352,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2375,28 +2399,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2421,28 +2445,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2646,10 +2670,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2693,28 +2717,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2739,28 +2763,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3191,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3214,28 +3238,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3284,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3804,10 +3828,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3851,28 +3875,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3897,28 +3921,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4238,10 +4262,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4285,28 +4309,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4331,28 +4355,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4585,10 +4609,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4632,28 +4656,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4678,28 +4702,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4811,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
